--- a/Projekt_2/Projekt_2.xlsx
+++ b/Projekt_2/Projekt_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\github\C-Sharp\Projekt_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4953E5D-B8DF-46A5-B05D-67CB0E1A3E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54D4DF4-A485-4717-BAA6-C214E46AC7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D7588036-BA06-4DD8-8C3B-2F28AD37AD71}"/>
   </bookViews>
@@ -6867,7 +6867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC92CD3-8326-4A11-A84F-02D370516B95}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
